--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F338867-144E-4834-8AA3-FB7565E46423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DDD5C-137B-4C30-957A-80FC84CDDCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2700" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:J9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,6 +494,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44584</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DDD5C-137B-4C30-957A-80FC84CDDCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74327019-C527-4751-A5D4-939A2FD5B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>周赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩滑动窗口76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -396,7 +404,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -424,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -438,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -452,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -466,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -480,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -494,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -506,6 +514,23 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44585</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74327019-C527-4751-A5D4-939A2FD5B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67834698-92C0-493F-8EC6-DD694A87E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>题数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贪心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +63,10 @@
   </si>
   <si>
     <t>剩滑动窗口76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型题数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,15 +412,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>44578</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44579</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>44580</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>44581</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>44582</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>44583</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>44584</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>44585</v>
@@ -530,7 +530,35 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44586</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44587</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67834698-92C0-493F-8EC6-DD694A87E4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727BED24-8496-4F2C-8099-A4C407555396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>类型题数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩双指针最后一题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,6 +569,37 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44588</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44589</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727BED24-8496-4F2C-8099-A4C407555396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4447978-62EE-45F2-96ED-BD4D3B87B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,6 +600,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44590</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44591</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44592</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
+++ b/books/LeetCode 101 - A LeetCode Grinding Guide (C++ Version)/leetcode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxp\Desktop\AI_for_learning\books\LeetCode 101 - A LeetCode Grinding Guide (C++ Version)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4447978-62EE-45F2-96ED-BD4D3B87B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57BAE6-3997-41C4-BC08-7807AA9C7119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,6 +646,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44593</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44594</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44595</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44596</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44597</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44598</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
